--- a/biology/Médecine/Alpha-casozépine/Alpha-casozépine.xlsx
+++ b/biology/Médecine/Alpha-casozépine/Alpha-casozépine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alpha-casoz%C3%A9pine</t>
+          <t>Alpha-casozépine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'α-casozépine ou alpha-casozépine est un peptide constitué de dix acides aminés, issu de l'hydrolyse trypsique de la caséine bovine. Il a des propriétés anxiolytiques, agissant comme les benzodiazépines[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'α-casozépine ou alpha-casozépine est un peptide constitué de dix acides aminés, issu de l'hydrolyse trypsique de la caséine bovine. Il a des propriétés anxiolytiques, agissant comme les benzodiazépines.
 Il est aussi appelé hydrolysat trypsique de caséine alpha-s1 (par abus de langage, puisqu'il n'est que l'un des composants d'un tel hydrolysat), αs1-CN(91-100), ou décapeptide de caséine alpha.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alpha-casoz%C3%A9pine</t>
+          <t>Alpha-casozépine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Séquence peptidique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'alpha-casozépine est un fragment peptidique correspondant à la séquence 91-100 de la caséine alpha S1 bovine[2]. D'après la séquence de cette dernière[3], la séquence de l'alpha-casozépine est donc Tyr-leu-gly-tyr-leu-glu-gln-leu-leu-arg (YLGYLEQLLR).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'alpha-casozépine est un fragment peptidique correspondant à la séquence 91-100 de la caséine alpha S1 bovine. D'après la séquence de cette dernière, la séquence de l'alpha-casozépine est donc Tyr-leu-gly-tyr-leu-glu-gln-leu-leu-arg (YLGYLEQLLR).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alpha-casoz%C3%A9pine</t>
+          <t>Alpha-casozépine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Effets et utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'alpha-casozépine est un anxiolytique léger naturel[4],[5],[6], de mécanisme similaire aux benzodiazépines[7]. Il présente une affinité pour les récepteurs GABA-A, mesurée in vitro environ 10000 fois moins puissante que celle du diazépam[8]. Si son action anti-stress est nettement moins forte que celle des benzodiazépines, il n'induit en revanche aucune accoutumance ni dépendance.
-Il est utilisé comme complément alimentaire en médecine humaine[9] et vétérinaire[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'alpha-casozépine est un anxiolytique léger naturel de mécanisme similaire aux benzodiazépines. Il présente une affinité pour les récepteurs GABA-A, mesurée in vitro environ 10000 fois moins puissante que celle du diazépam. Si son action anti-stress est nettement moins forte que celle des benzodiazépines, il n'induit en revanche aucune accoutumance ni dépendance.
+Il est utilisé comme complément alimentaire en médecine humaine et vétérinaire.
 </t>
         </is>
       </c>
